--- a/assignment1/results/benchmark_results.xlsx
+++ b/assignment1/results/benchmark_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Innsbruck\Studium\1. Semester\Parallel Systems\exercise1\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A74617-F4B8-473D-A876-3B9EF0E8F400}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F5E874-7FE9-4484-86B5-E6F88A8183D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2895" yWindow="2445" windowWidth="21600" windowHeight="12735" xr2:uid="{19B17768-4F68-4245-98D5-184490F95D77}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{19B17768-4F68-4245-98D5-184490F95D77}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>SIZE</t>
   </si>
@@ -39,22 +39,25 @@
     <t>Bandwidth Benchmark</t>
   </si>
   <si>
-    <t>MB/s</t>
-  </si>
-  <si>
-    <t>different nodes</t>
-  </si>
-  <si>
     <t>Latency Benchmark</t>
   </si>
   <si>
-    <t>µs</t>
+    <t>diff cores/same socket (MB/s)</t>
   </si>
   <si>
-    <t>diff cores/same socket</t>
+    <t>diff socket/same node  (MB/s)</t>
   </si>
   <si>
-    <t>diff socket/same node</t>
+    <t>different nodes  (MB/s)</t>
+  </si>
+  <si>
+    <t>diff cores/same socket (µs)</t>
+  </si>
+  <si>
+    <t>diff socket/same node (µs)</t>
+  </si>
+  <si>
+    <t>different nodes (µs)</t>
   </si>
 </sst>
 </file>
@@ -118,6 +121,2995 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Latency</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Benchmark</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$C$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>diff cores/same socket (µs)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$31:$B$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="#,##0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="#,##0">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,##0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="#,##0">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="#,##0">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="#,##0">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="#,##0">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="#,##0">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="#,##0">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="#,##0">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="#,##0">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="#,##0">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="#,##0">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="#,##0">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="#,##0">
+                  <c:v>4194304</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$C$31:$C$54</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1.37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.41</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.86</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.59</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.99</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.43</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.23</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>33.44</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>58.05</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>53.71</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>78.64</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>71.08</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>312.43</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>523.87</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1477.16</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3015.73</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9100.7800000000007</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10342.969999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3C28-4E78-B7DD-061D49C57869}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$D$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>diff socket/same node (µs)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$31:$B$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="#,##0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="#,##0">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,##0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="#,##0">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="#,##0">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="#,##0">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="#,##0">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="#,##0">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="#,##0">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="#,##0">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="#,##0">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="#,##0">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="#,##0">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="#,##0">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="#,##0">
+                  <c:v>4194304</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$D$31:$D$54</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>2.16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.71</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.73</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.77</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.29</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.0299999999999994</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.31</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.329999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45.65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>110.39</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>191.83</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>72.31</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>72.73</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>242.39</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>520.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1393.09</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3139.03</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8414.52</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9692.8799999999992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3C28-4E78-B7DD-061D49C57869}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$E$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>different nodes (µs)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$31:$B$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="#,##0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="#,##0">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,##0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="#,##0">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="#,##0">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="#,##0">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="#,##0">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="#,##0">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="#,##0">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="#,##0">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="#,##0">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="#,##0">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="#,##0">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="#,##0">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="#,##0">
+                  <c:v>4194304</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$E$31:$E$54</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>32.14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.66</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38.659999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37.520000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.51</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29.92</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42.79</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>49.92</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40.619999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70.09</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>75.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>132.97</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>171.29</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>164.68</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>81.33</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>120.28</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>172.93</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>299.36</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>556.69000000000005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1080.43</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2065.63</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3859.86</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6784.98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3C28-4E78-B7DD-061D49C57869}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="541185135"/>
+        <c:axId val="346571039"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="541185135"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="346571039"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="346571039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="541185135"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Bandwidth Benchmark</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>diff cores/same socket (MB/s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$4:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="#,##0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="#,##0">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="#,##0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,##0">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="#,##0">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="#,##0">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="#,##0">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="#,##0">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="#,##0">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="#,##0">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="#,##0">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="#,##0">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="#,##0">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="#,##0">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="#,##0">
+                  <c:v>4194304</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$C$4:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>4.3099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.49</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.2699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200.18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>290.02999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>605.48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1330.26</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1633.46</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2299.65</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>208.31</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>428.53</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>923.39</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1095.51</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>944.35</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1532.12</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2218.12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1341.99</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1495.31</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1478.18</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>468.54</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E7AF-453A-B45D-171816D302DB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>diff socket/same node  (MB/s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$4:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="#,##0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="#,##0">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="#,##0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,##0">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="#,##0">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="#,##0">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="#,##0">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="#,##0">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="#,##0">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="#,##0">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="#,##0">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="#,##0">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="#,##0">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="#,##0">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="#,##0">
+                  <c:v>4194304</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$D$4:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>4.26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33.869999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60.89</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>124.41</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>208.41</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>351.74</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>604.39</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1344.97</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2481.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3596.31</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1534.18</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2308.52</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3034.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4019.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4891.09</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5486.99</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5865.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5971.85</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6179.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5861.65</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1555.68</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E7AF-453A-B45D-171816D302DB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>different nodes  (MB/s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$4:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="#,##0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="#,##0">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="#,##0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,##0">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="#,##0">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="#,##0">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="#,##0">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="#,##0">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="#,##0">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="#,##0">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="#,##0">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="#,##0">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="#,##0">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="#,##0">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="#,##0">
+                  <c:v>4194304</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$E$4:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.43</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.2100000000000009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.91</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.74</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>189.84</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>80.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>101.41</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>95.37</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>131.86000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>244.61</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>216.78</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>253.16</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>308.12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>623.69000000000005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>629.85</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>858</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1223.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E7AF-453A-B45D-171816D302DB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="474215551"/>
+        <c:axId val="463532495"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="474215551"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="463532495"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="463532495"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="474215551"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>690561</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>138111</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFE6624C-B6D7-44B8-85BB-F87CA02027DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>661986</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>352424</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66632CF9-335F-4B41-8960-189634BA0130}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -417,17 +3409,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04AE2470-F86C-4336-A8FC-D86E7A46921A}">
-  <dimension ref="B2:E55"/>
+  <dimension ref="B2:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.5703125" customWidth="1"/>
   </cols>
@@ -438,358 +3430,350 @@
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>2</v>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="D4" s="3">
+        <v>4.26</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.08</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="3">
-        <v>4.3099999999999996</v>
+        <v>8.1</v>
       </c>
       <c r="D5" s="3">
-        <v>4.26</v>
+        <v>8.64</v>
       </c>
       <c r="E5" s="3">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6" s="3">
-        <v>8.1</v>
+        <v>1.08</v>
       </c>
       <c r="D6" s="3">
-        <v>8.64</v>
+        <v>17.27</v>
       </c>
       <c r="E6" s="3">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C7" s="3">
-        <v>1.08</v>
+        <v>34.29</v>
       </c>
       <c r="D7" s="3">
-        <v>17.27</v>
+        <v>33.869999999999997</v>
       </c>
       <c r="E7" s="3">
-        <v>0.13</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C8" s="3">
-        <v>34.29</v>
+        <v>7.49</v>
       </c>
       <c r="D8" s="3">
-        <v>33.869999999999997</v>
+        <v>60.89</v>
       </c>
       <c r="E8" s="3">
-        <v>0.87</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C9" s="3">
-        <v>7.49</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="D9" s="3">
-        <v>60.89</v>
+        <v>124.41</v>
       </c>
       <c r="E9" s="3">
-        <v>1.4</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>32</v>
+      <c r="B10" s="1">
+        <v>64</v>
       </c>
       <c r="C10" s="3">
-        <v>4.2699999999999996</v>
+        <v>200.18</v>
       </c>
       <c r="D10" s="3">
-        <v>124.41</v>
+        <v>208.41</v>
       </c>
       <c r="E10" s="3">
-        <v>3.3</v>
+        <v>7.43</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="C11" s="3">
-        <v>200.18</v>
+        <v>290.02999999999997</v>
       </c>
       <c r="D11" s="3">
-        <v>208.41</v>
+        <v>351.74</v>
       </c>
       <c r="E11" s="3">
-        <v>7.43</v>
+        <v>8.2100000000000009</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="C12" s="3">
-        <v>290.02999999999997</v>
+        <v>605.48</v>
       </c>
       <c r="D12" s="3">
-        <v>351.74</v>
+        <v>604.39</v>
       </c>
       <c r="E12" s="3">
-        <v>8.2100000000000009</v>
+        <v>14.91</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="C13" s="3">
-        <v>605.48</v>
+        <v>1330.26</v>
       </c>
       <c r="D13" s="3">
-        <v>604.39</v>
+        <v>1344.97</v>
       </c>
       <c r="E13" s="3">
-        <v>14.91</v>
+        <v>10.74</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="C14" s="3">
-        <v>1330.26</v>
+        <v>1633.46</v>
       </c>
       <c r="D14" s="3">
-        <v>1344.97</v>
+        <v>2481.25</v>
       </c>
       <c r="E14" s="3">
-        <v>10.74</v>
+        <v>189.84</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
-        <v>1024</v>
+        <v>2048</v>
       </c>
       <c r="C15" s="3">
-        <v>1633.46</v>
+        <v>2299.65</v>
       </c>
       <c r="D15" s="3">
-        <v>2481.25</v>
+        <v>3596.31</v>
       </c>
       <c r="E15" s="3">
-        <v>189.84</v>
+        <v>80.599999999999994</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
-        <v>2048</v>
+        <v>4096</v>
       </c>
       <c r="C16" s="3">
-        <v>2299.65</v>
+        <v>208.31</v>
       </c>
       <c r="D16" s="3">
-        <v>3596.31</v>
+        <v>1534.18</v>
       </c>
       <c r="E16" s="3">
-        <v>80.599999999999994</v>
+        <v>101.41</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
-        <v>4096</v>
+        <v>8192</v>
       </c>
       <c r="C17" s="3">
-        <v>208.31</v>
+        <v>428.53</v>
       </c>
       <c r="D17" s="3">
-        <v>1534.18</v>
+        <v>2308.52</v>
       </c>
       <c r="E17" s="3">
-        <v>101.41</v>
+        <v>95.37</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
-        <v>8192</v>
+        <v>16384</v>
       </c>
       <c r="C18" s="3">
-        <v>428.53</v>
+        <v>923.39</v>
       </c>
       <c r="D18" s="3">
-        <v>2308.52</v>
+        <v>3034.2</v>
       </c>
       <c r="E18" s="3">
-        <v>95.37</v>
+        <v>131.86000000000001</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
-        <v>16384</v>
+        <v>32768</v>
       </c>
       <c r="C19" s="3">
-        <v>923.39</v>
+        <v>1095.51</v>
       </c>
       <c r="D19" s="3">
-        <v>3034.2</v>
+        <v>4019.6</v>
       </c>
       <c r="E19" s="3">
-        <v>131.86000000000001</v>
+        <v>244.61</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
-        <v>32768</v>
+        <v>65536</v>
       </c>
       <c r="C20" s="3">
-        <v>1095.51</v>
+        <v>944.35</v>
       </c>
       <c r="D20" s="3">
-        <v>4019.6</v>
+        <v>4891.09</v>
       </c>
       <c r="E20" s="3">
-        <v>244.61</v>
+        <v>216.78</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
-        <v>65536</v>
+        <v>131072</v>
       </c>
       <c r="C21" s="3">
-        <v>944.35</v>
+        <v>1532.12</v>
       </c>
       <c r="D21" s="3">
-        <v>4891.09</v>
+        <v>5486.99</v>
       </c>
       <c r="E21" s="3">
-        <v>216.78</v>
+        <v>253.16</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="C22" s="3">
-        <v>1532.12</v>
+        <v>2218.12</v>
       </c>
       <c r="D22" s="3">
-        <v>5486.99</v>
+        <v>5865.2</v>
       </c>
       <c r="E22" s="3">
-        <v>253.16</v>
+        <v>308.12</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
-        <v>262144</v>
+        <v>524288</v>
       </c>
       <c r="C23" s="3">
-        <v>2218.12</v>
+        <v>1341.99</v>
       </c>
       <c r="D23" s="3">
-        <v>5865.2</v>
+        <v>5971.85</v>
       </c>
       <c r="E23" s="3">
-        <v>308.12</v>
+        <v>623.69000000000005</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
-        <v>524288</v>
+        <v>1048576</v>
       </c>
       <c r="C24" s="3">
-        <v>1341.99</v>
+        <v>1495.31</v>
       </c>
       <c r="D24" s="3">
-        <v>5971.85</v>
+        <v>6179.8</v>
       </c>
       <c r="E24" s="3">
-        <v>623.69000000000005</v>
+        <v>629.85</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
-        <v>1048576</v>
+        <v>2097152</v>
       </c>
       <c r="C25" s="3">
-        <v>1495.31</v>
+        <v>1478.18</v>
       </c>
       <c r="D25" s="3">
-        <v>6179.8</v>
+        <v>5861.65</v>
       </c>
       <c r="E25" s="3">
-        <v>629.85</v>
+        <v>858</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
-        <v>2097152</v>
+        <v>4194304</v>
       </c>
       <c r="C26" s="3">
-        <v>1478.18</v>
+        <v>468.54</v>
       </c>
       <c r="D26" s="3">
-        <v>5861.65</v>
+        <v>1555.68</v>
       </c>
       <c r="E26" s="3">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="1">
-        <v>4194304</v>
-      </c>
-      <c r="C27" s="3">
-        <v>468.54</v>
-      </c>
-      <c r="D27" s="3">
-        <v>1555.68</v>
-      </c>
-      <c r="E27" s="3">
         <v>1223.5</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B29" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
       <c r="C30" t="s">
         <v>6</v>
       </c>
@@ -797,361 +3781,348 @@
         <v>7</v>
       </c>
       <c r="E30" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+      <c r="B31">
         <v>0</v>
       </c>
-      <c r="C31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31" t="s">
-        <v>5</v>
+      <c r="C31" s="3">
+        <v>1.37</v>
+      </c>
+      <c r="D31" s="3">
+        <v>2.16</v>
+      </c>
+      <c r="E31" s="3">
+        <v>32.14</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" s="3">
-        <v>1.37</v>
+        <v>5.2</v>
       </c>
       <c r="D32" s="3">
-        <v>2.16</v>
+        <v>2.65</v>
       </c>
       <c r="E32" s="3">
-        <v>32.14</v>
+        <v>26.66</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33" s="3">
-        <v>5.2</v>
+        <v>4.41</v>
       </c>
       <c r="D33" s="3">
-        <v>2.65</v>
+        <v>5.31</v>
       </c>
       <c r="E33" s="3">
-        <v>26.66</v>
+        <v>38.659999999999997</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C34" s="3">
-        <v>4.41</v>
+        <v>3.33</v>
       </c>
       <c r="D34" s="3">
-        <v>5.31</v>
+        <v>0.47</v>
       </c>
       <c r="E34" s="3">
-        <v>38.659999999999997</v>
+        <v>37.520000000000003</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C35" s="3">
-        <v>3.33</v>
+        <v>3.86</v>
       </c>
       <c r="D35" s="3">
-        <v>0.47</v>
+        <v>2.71</v>
       </c>
       <c r="E35" s="3">
-        <v>37.520000000000003</v>
+        <v>24.05</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C36" s="3">
-        <v>3.86</v>
+        <v>3.5</v>
       </c>
       <c r="D36" s="3">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="E36" s="3">
-        <v>24.05</v>
+        <v>28.51</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C37" s="3">
-        <v>3.5</v>
+        <v>3.59</v>
       </c>
       <c r="D37" s="3">
-        <v>2.73</v>
+        <v>5.24</v>
       </c>
       <c r="E37" s="3">
-        <v>28.51</v>
+        <v>29.92</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38">
-        <v>32</v>
+      <c r="B38" s="1">
+        <v>64</v>
       </c>
       <c r="C38" s="3">
-        <v>3.59</v>
+        <v>1.99</v>
       </c>
       <c r="D38" s="3">
-        <v>5.24</v>
+        <v>2.77</v>
       </c>
       <c r="E38" s="3">
-        <v>29.92</v>
+        <v>42.79</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="C39" s="3">
-        <v>1.99</v>
+        <v>3.6</v>
       </c>
       <c r="D39" s="3">
-        <v>2.77</v>
+        <v>4</v>
       </c>
       <c r="E39" s="3">
-        <v>42.79</v>
+        <v>49.92</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="C40" s="3">
-        <v>3.6</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="D40" s="3">
-        <v>4</v>
+        <v>4.29</v>
       </c>
       <c r="E40" s="3">
-        <v>49.92</v>
+        <v>40.619999999999997</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="C41" s="3">
-        <v>2.0099999999999998</v>
+        <v>2.9</v>
       </c>
       <c r="D41" s="3">
-        <v>4.29</v>
+        <v>8.0299999999999994</v>
       </c>
       <c r="E41" s="3">
-        <v>40.619999999999997</v>
+        <v>70.09</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="C42" s="3">
-        <v>2.9</v>
+        <v>4.43</v>
       </c>
       <c r="D42" s="3">
-        <v>8.0299999999999994</v>
+        <v>9.31</v>
       </c>
       <c r="E42" s="3">
-        <v>70.09</v>
+        <v>75.3</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" s="1">
-        <v>1024</v>
+        <v>2048</v>
       </c>
       <c r="C43" s="3">
-        <v>4.43</v>
+        <v>5.23</v>
       </c>
       <c r="D43" s="3">
-        <v>9.31</v>
+        <v>20.329999999999998</v>
       </c>
       <c r="E43" s="3">
-        <v>75.3</v>
+        <v>132.97</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
-        <v>2048</v>
+        <v>4096</v>
       </c>
       <c r="C44" s="3">
-        <v>5.23</v>
+        <v>33.44</v>
       </c>
       <c r="D44" s="3">
-        <v>20.329999999999998</v>
+        <v>45.65</v>
       </c>
       <c r="E44" s="3">
-        <v>132.97</v>
+        <v>171.29</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" s="1">
-        <v>4096</v>
+        <v>8192</v>
       </c>
       <c r="C45" s="3">
-        <v>33.44</v>
+        <v>58.05</v>
       </c>
       <c r="D45" s="3">
-        <v>45.65</v>
+        <v>110.39</v>
       </c>
       <c r="E45" s="3">
-        <v>171.29</v>
+        <v>164.68</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
-        <v>8192</v>
+        <v>16384</v>
       </c>
       <c r="C46" s="3">
-        <v>58.05</v>
+        <v>53.71</v>
       </c>
       <c r="D46" s="3">
-        <v>110.39</v>
+        <v>191.83</v>
       </c>
       <c r="E46" s="3">
-        <v>164.68</v>
+        <v>81.33</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
-        <v>16384</v>
+        <v>32768</v>
       </c>
       <c r="C47" s="3">
-        <v>53.71</v>
+        <v>78.64</v>
       </c>
       <c r="D47" s="3">
-        <v>191.83</v>
+        <v>72.31</v>
       </c>
       <c r="E47" s="3">
-        <v>81.33</v>
+        <v>120.28</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" s="1">
-        <v>32768</v>
+        <v>65536</v>
       </c>
       <c r="C48" s="3">
-        <v>78.64</v>
+        <v>71.08</v>
       </c>
       <c r="D48" s="3">
-        <v>72.31</v>
+        <v>72.73</v>
       </c>
       <c r="E48" s="3">
-        <v>120.28</v>
+        <v>172.93</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
-        <v>65536</v>
+        <v>131072</v>
       </c>
       <c r="C49" s="3">
-        <v>71.08</v>
+        <v>312.43</v>
       </c>
       <c r="D49" s="3">
-        <v>72.73</v>
+        <v>242.39</v>
       </c>
       <c r="E49" s="3">
-        <v>172.93</v>
+        <v>299.36</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" s="1">
-        <v>131072</v>
+        <v>262144</v>
       </c>
       <c r="C50" s="3">
-        <v>312.43</v>
+        <v>523.87</v>
       </c>
       <c r="D50" s="3">
-        <v>242.39</v>
+        <v>520.5</v>
       </c>
       <c r="E50" s="3">
-        <v>299.36</v>
+        <v>556.69000000000005</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51" s="1">
-        <v>262144</v>
+        <v>524288</v>
       </c>
       <c r="C51" s="3">
-        <v>523.87</v>
+        <v>1477.16</v>
       </c>
       <c r="D51" s="3">
-        <v>520.5</v>
+        <v>1393.09</v>
       </c>
       <c r="E51" s="3">
-        <v>556.69000000000005</v>
+        <v>1080.43</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
-        <v>524288</v>
+        <v>1048576</v>
       </c>
       <c r="C52" s="3">
-        <v>1477.16</v>
+        <v>3015.73</v>
       </c>
       <c r="D52" s="3">
-        <v>1393.09</v>
+        <v>3139.03</v>
       </c>
       <c r="E52" s="3">
-        <v>1080.43</v>
+        <v>2065.63</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53" s="1">
-        <v>1048576</v>
+        <v>2097152</v>
       </c>
       <c r="C53" s="3">
-        <v>3015.73</v>
+        <v>9100.7800000000007</v>
       </c>
       <c r="D53" s="3">
-        <v>3139.03</v>
+        <v>8414.52</v>
       </c>
       <c r="E53" s="3">
-        <v>2065.63</v>
+        <v>3859.86</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54" s="1">
-        <v>2097152</v>
+        <v>4194304</v>
       </c>
       <c r="C54" s="3">
-        <v>9100.7800000000007</v>
+        <v>10342.969999999999</v>
       </c>
       <c r="D54" s="3">
-        <v>8414.52</v>
+        <v>9692.8799999999992</v>
       </c>
       <c r="E54" s="3">
-        <v>3859.86</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="1">
-        <v>4194304</v>
-      </c>
-      <c r="C55" s="3">
-        <v>10342.969999999999</v>
-      </c>
-      <c r="D55" s="3">
-        <v>9692.8799999999992</v>
-      </c>
-      <c r="E55" s="3">
         <v>6784.98</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/assignment1/results/benchmark_results.xlsx
+++ b/assignment1/results/benchmark_results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Innsbruck\Studium\1. Semester\Parallel Systems\exercise1\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Innsbruck\Studium\1. Semester\Parallel Systems\assignment1\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F5E874-7FE9-4484-86B5-E6F88A8183D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5D0724-9227-47E6-BF50-CEC286B7D48D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{19B17768-4F68-4245-98D5-184490F95D77}"/>
   </bookViews>
@@ -207,7 +207,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$C$30</c:f>
+              <c:f>Tabelle1!$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -242,7 +242,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$B$31:$B$54</c:f>
+              <c:f>Tabelle1!$B$4:$B$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -323,81 +323,81 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$C$31:$C$54</c:f>
+              <c:f>Tabelle1!$C$4:$C$27</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>1.37</c:v>
+                  <c:v>0.43</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.2</c:v>
+                  <c:v>0.48</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.41</c:v>
+                  <c:v>0.48</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.33</c:v>
+                  <c:v>0.48</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.86</c:v>
+                  <c:v>0.48</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.5</c:v>
+                  <c:v>0.49</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.59</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.99</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.6</c:v>
+                  <c:v>0.59</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.0099999999999998</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.9</c:v>
+                  <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.43</c:v>
+                  <c:v>1.88</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.23</c:v>
+                  <c:v>1.82</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>33.44</c:v>
+                  <c:v>6.34</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>58.05</c:v>
+                  <c:v>19.87</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>53.71</c:v>
+                  <c:v>22.12</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>78.64</c:v>
+                  <c:v>51.74</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>71.08</c:v>
+                  <c:v>69.56</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>312.43</c:v>
+                  <c:v>91.4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>523.87</c:v>
+                  <c:v>195.88</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1477.16</c:v>
+                  <c:v>365.49</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3015.73</c:v>
+                  <c:v>1255.45</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9100.7800000000007</c:v>
+                  <c:v>10207.33</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10342.969999999999</c:v>
+                  <c:v>13858.09</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -414,7 +414,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$D$30</c:f>
+              <c:f>Tabelle1!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -449,7 +449,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$B$31:$B$54</c:f>
+              <c:f>Tabelle1!$B$4:$B$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -530,81 +530,81 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$D$31:$D$54</c:f>
+              <c:f>Tabelle1!$D$4:$D$27</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>2.16</c:v>
+                  <c:v>0.42</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.65</c:v>
+                  <c:v>0.47</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.31</c:v>
+                  <c:v>1.21</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.47</c:v>
+                  <c:v>1.1200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.71</c:v>
+                  <c:v>1.78</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.73</c:v>
+                  <c:v>3.23</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.24</c:v>
+                  <c:v>1.1299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.77</c:v>
+                  <c:v>2.69</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>2.27</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.29</c:v>
+                  <c:v>2.1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.0299999999999994</c:v>
+                  <c:v>4.13</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.31</c:v>
+                  <c:v>3.72</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20.329999999999998</c:v>
+                  <c:v>6.73</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45.65</c:v>
+                  <c:v>16.59</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>110.39</c:v>
+                  <c:v>19.850000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>191.83</c:v>
+                  <c:v>27.14</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>72.31</c:v>
+                  <c:v>36.229999999999997</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>72.73</c:v>
+                  <c:v>53.72</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>242.39</c:v>
+                  <c:v>100.28</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>520.5</c:v>
+                  <c:v>454.48</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1393.09</c:v>
+                  <c:v>477.64</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3139.03</c:v>
+                  <c:v>1309.57</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8414.52</c:v>
+                  <c:v>10481.4</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9692.8799999999992</c:v>
+                  <c:v>12855.16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -621,7 +621,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$E$30</c:f>
+              <c:f>Tabelle1!$E$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -656,7 +656,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$B$31:$B$54</c:f>
+              <c:f>Tabelle1!$B$4:$B$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -737,7 +737,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$E$31:$E$54</c:f>
+              <c:f>Tabelle1!$E$4:$E$27</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="24"/>
@@ -837,6 +837,7 @@
       <c:valAx>
         <c:axId val="541185135"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -899,6 +900,7 @@
       <c:valAx>
         <c:axId val="346571039"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1114,7 +1116,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$C$3</c:f>
+              <c:f>Tabelle1!$C$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1149,7 +1151,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$B$4:$B$26</c:f>
+              <c:f>Tabelle1!$B$32:$B$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -1227,7 +1229,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$C$4:$C$26</c:f>
+              <c:f>Tabelle1!$C$32:$C$54</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="23"/>
@@ -1247,7 +1249,7 @@
                   <c:v>7.49</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.2699999999999996</c:v>
+                  <c:v>124.41</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>200.18</c:v>
@@ -1315,7 +1317,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$D$3</c:f>
+              <c:f>Tabelle1!$D$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1350,7 +1352,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$B$4:$B$26</c:f>
+              <c:f>Tabelle1!$B$32:$B$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -1428,7 +1430,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$D$4:$D$26</c:f>
+              <c:f>Tabelle1!$D$32:$D$54</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="23"/>
@@ -1516,7 +1518,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$E$3</c:f>
+              <c:f>Tabelle1!$E$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1551,7 +1553,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$B$4:$B$26</c:f>
+              <c:f>Tabelle1!$B$32:$B$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -1629,78 +1631,78 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$E$4:$E$26</c:f>
+              <c:f>Tabelle1!$E$32:$E$54</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>0.08</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.17</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.13</c:v>
+                  <c:v>0.43</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.87</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4</c:v>
+                  <c:v>1.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.3</c:v>
+                  <c:v>3.44</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.43</c:v>
+                  <c:v>7.13</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.2100000000000009</c:v>
+                  <c:v>1.26</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14.91</c:v>
+                  <c:v>5.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.74</c:v>
+                  <c:v>85.47</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>189.84</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>80.599999999999994</c:v>
+                  <c:v>57.18</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>101.41</c:v>
+                  <c:v>91.44</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>95.37</c:v>
+                  <c:v>108.57</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>131.86000000000001</c:v>
+                  <c:v>85.47</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>244.61</c:v>
+                  <c:v>154.16999999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>216.78</c:v>
+                  <c:v>204.52</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>253.16</c:v>
+                  <c:v>241.74</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>308.12</c:v>
+                  <c:v>310.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>623.69000000000005</c:v>
+                  <c:v>616.27</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>629.85</c:v>
+                  <c:v>617.95000000000005</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>858</c:v>
+                  <c:v>850.54</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1223.5</c:v>
+                  <c:v>1201.5899999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1726,6 +1728,7 @@
       <c:valAx>
         <c:axId val="474215551"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1788,6 +1791,7 @@
       <c:valAx>
         <c:axId val="463532495"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3040,15 +3044,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>690561</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>138111</xdr:rowOff>
+      <xdr:colOff>751633</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>48464</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:colOff>384922</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>155200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3075,16 +3079,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>661986</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>4761</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>23251</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>228878</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>352424</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:colOff>475689</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>150718</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3411,8 +3415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04AE2470-F86C-4336-A8FC-D86E7A46921A}">
   <dimension ref="B2:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3420,13 +3424,13 @@
     <col min="3" max="3" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
     <col min="7" max="7" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
@@ -3434,368 +3438,368 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>4.3099999999999996</v>
+        <v>0.43</v>
       </c>
       <c r="D4" s="3">
-        <v>4.26</v>
+        <v>0.42</v>
       </c>
       <c r="E4" s="3">
-        <v>0.08</v>
+        <v>32.14</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>8.1</v>
+        <v>0.48</v>
       </c>
       <c r="D5" s="3">
-        <v>8.64</v>
+        <v>0.47</v>
       </c>
       <c r="E5" s="3">
-        <v>0.17</v>
+        <v>26.66</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" s="3">
-        <v>1.08</v>
+        <v>0.48</v>
       </c>
       <c r="D6" s="3">
-        <v>17.27</v>
+        <v>1.21</v>
       </c>
       <c r="E6" s="3">
-        <v>0.13</v>
+        <v>38.659999999999997</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C7" s="3">
-        <v>34.29</v>
+        <v>0.48</v>
       </c>
       <c r="D7" s="3">
-        <v>33.869999999999997</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="E7" s="3">
-        <v>0.87</v>
+        <v>37.520000000000003</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C8" s="3">
-        <v>7.49</v>
+        <v>0.48</v>
       </c>
       <c r="D8" s="3">
-        <v>60.89</v>
+        <v>1.78</v>
       </c>
       <c r="E8" s="3">
-        <v>1.4</v>
+        <v>24.05</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9">
+        <v>16</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.49</v>
+      </c>
+      <c r="D9" s="3">
+        <v>3.23</v>
+      </c>
+      <c r="E9" s="3">
+        <v>28.51</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10">
         <v>32</v>
       </c>
-      <c r="C9" s="3">
-        <v>4.2699999999999996</v>
-      </c>
-      <c r="D9" s="3">
-        <v>124.41</v>
-      </c>
-      <c r="E9" s="3">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="1">
-        <v>64</v>
-      </c>
       <c r="C10" s="3">
-        <v>200.18</v>
+        <v>0.5</v>
       </c>
       <c r="D10" s="3">
-        <v>208.41</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="E10" s="3">
-        <v>7.43</v>
+        <v>29.92</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="C11" s="3">
-        <v>290.02999999999997</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D11" s="3">
-        <v>351.74</v>
+        <v>2.69</v>
       </c>
       <c r="E11" s="3">
-        <v>8.2100000000000009</v>
+        <v>42.79</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="C12" s="3">
-        <v>605.48</v>
+        <v>0.59</v>
       </c>
       <c r="D12" s="3">
-        <v>604.39</v>
+        <v>2.27</v>
       </c>
       <c r="E12" s="3">
-        <v>14.91</v>
+        <v>49.92</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="C13" s="3">
-        <v>1330.26</v>
+        <v>0.65</v>
       </c>
       <c r="D13" s="3">
-        <v>1344.97</v>
+        <v>2.1</v>
       </c>
       <c r="E13" s="3">
-        <v>10.74</v>
+        <v>40.619999999999997</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
-        <v>1024</v>
+        <v>512</v>
       </c>
       <c r="C14" s="3">
-        <v>1633.46</v>
+        <v>0.95</v>
       </c>
       <c r="D14" s="3">
-        <v>2481.25</v>
+        <v>4.13</v>
       </c>
       <c r="E14" s="3">
-        <v>189.84</v>
+        <v>70.09</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
-        <v>2048</v>
+        <v>1024</v>
       </c>
       <c r="C15" s="3">
-        <v>2299.65</v>
+        <v>1.88</v>
       </c>
       <c r="D15" s="3">
-        <v>3596.31</v>
+        <v>3.72</v>
       </c>
       <c r="E15" s="3">
-        <v>80.599999999999994</v>
+        <v>75.3</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
-        <v>4096</v>
+        <v>2048</v>
       </c>
       <c r="C16" s="3">
-        <v>208.31</v>
+        <v>1.82</v>
       </c>
       <c r="D16" s="3">
-        <v>1534.18</v>
+        <v>6.73</v>
       </c>
       <c r="E16" s="3">
-        <v>101.41</v>
+        <v>132.97</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
-        <v>8192</v>
+        <v>4096</v>
       </c>
       <c r="C17" s="3">
-        <v>428.53</v>
+        <v>6.34</v>
       </c>
       <c r="D17" s="3">
-        <v>2308.52</v>
+        <v>16.59</v>
       </c>
       <c r="E17" s="3">
-        <v>95.37</v>
+        <v>171.29</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
-        <v>16384</v>
+        <v>8192</v>
       </c>
       <c r="C18" s="3">
-        <v>923.39</v>
+        <v>19.87</v>
       </c>
       <c r="D18" s="3">
-        <v>3034.2</v>
+        <v>19.850000000000001</v>
       </c>
       <c r="E18" s="3">
-        <v>131.86000000000001</v>
+        <v>164.68</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
-        <v>32768</v>
+        <v>16384</v>
       </c>
       <c r="C19" s="3">
-        <v>1095.51</v>
+        <v>22.12</v>
       </c>
       <c r="D19" s="3">
-        <v>4019.6</v>
+        <v>27.14</v>
       </c>
       <c r="E19" s="3">
-        <v>244.61</v>
+        <v>81.33</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
-        <v>65536</v>
+        <v>32768</v>
       </c>
       <c r="C20" s="3">
-        <v>944.35</v>
+        <v>51.74</v>
       </c>
       <c r="D20" s="3">
-        <v>4891.09</v>
+        <v>36.229999999999997</v>
       </c>
       <c r="E20" s="3">
-        <v>216.78</v>
+        <v>120.28</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
-        <v>131072</v>
+        <v>65536</v>
       </c>
       <c r="C21" s="3">
-        <v>1532.12</v>
+        <v>69.56</v>
       </c>
       <c r="D21" s="3">
-        <v>5486.99</v>
+        <v>53.72</v>
       </c>
       <c r="E21" s="3">
-        <v>253.16</v>
+        <v>172.93</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
-        <v>262144</v>
+        <v>131072</v>
       </c>
       <c r="C22" s="3">
-        <v>2218.12</v>
+        <v>91.4</v>
       </c>
       <c r="D22" s="3">
-        <v>5865.2</v>
+        <v>100.28</v>
       </c>
       <c r="E22" s="3">
-        <v>308.12</v>
+        <v>299.36</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
-        <v>524288</v>
+        <v>262144</v>
       </c>
       <c r="C23" s="3">
-        <v>1341.99</v>
+        <v>195.88</v>
       </c>
       <c r="D23" s="3">
-        <v>5971.85</v>
+        <v>454.48</v>
       </c>
       <c r="E23" s="3">
-        <v>623.69000000000005</v>
+        <v>556.69000000000005</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
-        <v>1048576</v>
+        <v>524288</v>
       </c>
       <c r="C24" s="3">
-        <v>1495.31</v>
+        <v>365.49</v>
       </c>
       <c r="D24" s="3">
-        <v>6179.8</v>
+        <v>477.64</v>
       </c>
       <c r="E24" s="3">
-        <v>629.85</v>
+        <v>1080.43</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
-        <v>2097152</v>
+        <v>1048576</v>
       </c>
       <c r="C25" s="3">
-        <v>1478.18</v>
+        <v>1255.45</v>
       </c>
       <c r="D25" s="3">
-        <v>5861.65</v>
+        <v>1309.57</v>
       </c>
       <c r="E25" s="3">
-        <v>858</v>
+        <v>2065.63</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
+        <v>2097152</v>
+      </c>
+      <c r="C26" s="3">
+        <v>10207.33</v>
+      </c>
+      <c r="D26" s="3">
+        <v>10481.4</v>
+      </c>
+      <c r="E26" s="3">
+        <v>3859.86</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="1">
         <v>4194304</v>
       </c>
-      <c r="C26" s="3">
-        <v>468.54</v>
-      </c>
-      <c r="D26" s="3">
-        <v>1555.68</v>
-      </c>
-      <c r="E26" s="3">
-        <v>1223.5</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B29" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+      <c r="C27" s="3">
+        <v>13858.09</v>
+      </c>
+      <c r="D27" s="3">
+        <v>12855.16</v>
+      </c>
+      <c r="E27" s="3">
+        <v>6784.98</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B30" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>0</v>
       </c>
-      <c r="C30" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31" s="3">
-        <v>1.37</v>
-      </c>
-      <c r="D31" s="3">
-        <v>2.16</v>
-      </c>
-      <c r="E31" s="3">
-        <v>32.14</v>
+      <c r="C31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
@@ -3803,13 +3807,13 @@
         <v>1</v>
       </c>
       <c r="C32" s="3">
-        <v>5.2</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="D32" s="3">
-        <v>2.65</v>
+        <v>4.26</v>
       </c>
       <c r="E32" s="3">
-        <v>26.66</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
@@ -3817,13 +3821,13 @@
         <v>2</v>
       </c>
       <c r="C33" s="3">
-        <v>4.41</v>
+        <v>8.1</v>
       </c>
       <c r="D33" s="3">
-        <v>5.31</v>
+        <v>8.64</v>
       </c>
       <c r="E33" s="3">
-        <v>38.659999999999997</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
@@ -3831,13 +3835,13 @@
         <v>4</v>
       </c>
       <c r="C34" s="3">
-        <v>3.33</v>
+        <v>1.08</v>
       </c>
       <c r="D34" s="3">
-        <v>0.47</v>
+        <v>17.27</v>
       </c>
       <c r="E34" s="3">
-        <v>37.520000000000003</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
@@ -3845,13 +3849,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="3">
-        <v>3.86</v>
+        <v>34.29</v>
       </c>
       <c r="D35" s="3">
-        <v>2.71</v>
+        <v>33.869999999999997</v>
       </c>
       <c r="E35" s="3">
-        <v>24.05</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
@@ -3859,13 +3863,13 @@
         <v>16</v>
       </c>
       <c r="C36" s="3">
-        <v>3.5</v>
+        <v>7.49</v>
       </c>
       <c r="D36" s="3">
-        <v>2.73</v>
+        <v>60.89</v>
       </c>
       <c r="E36" s="3">
-        <v>28.51</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
@@ -3873,13 +3877,13 @@
         <v>32</v>
       </c>
       <c r="C37" s="3">
-        <v>3.59</v>
+        <v>124.41</v>
       </c>
       <c r="D37" s="3">
-        <v>5.24</v>
+        <v>124.41</v>
       </c>
       <c r="E37" s="3">
-        <v>29.92</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
@@ -3887,13 +3891,13 @@
         <v>64</v>
       </c>
       <c r="C38" s="3">
-        <v>1.99</v>
+        <v>200.18</v>
       </c>
       <c r="D38" s="3">
-        <v>2.77</v>
+        <v>208.41</v>
       </c>
       <c r="E38" s="3">
-        <v>42.79</v>
+        <v>7.13</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
@@ -3901,13 +3905,13 @@
         <v>128</v>
       </c>
       <c r="C39" s="3">
-        <v>3.6</v>
+        <v>290.02999999999997</v>
       </c>
       <c r="D39" s="3">
-        <v>4</v>
+        <v>351.74</v>
       </c>
       <c r="E39" s="3">
-        <v>49.92</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
@@ -3915,13 +3919,13 @@
         <v>256</v>
       </c>
       <c r="C40" s="3">
-        <v>2.0099999999999998</v>
+        <v>605.48</v>
       </c>
       <c r="D40" s="3">
-        <v>4.29</v>
+        <v>604.39</v>
       </c>
       <c r="E40" s="3">
-        <v>40.619999999999997</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
@@ -3929,13 +3933,13 @@
         <v>512</v>
       </c>
       <c r="C41" s="3">
-        <v>2.9</v>
+        <v>1330.26</v>
       </c>
       <c r="D41" s="3">
-        <v>8.0299999999999994</v>
+        <v>1344.97</v>
       </c>
       <c r="E41" s="3">
-        <v>70.09</v>
+        <v>85.47</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
@@ -3943,13 +3947,13 @@
         <v>1024</v>
       </c>
       <c r="C42" s="3">
-        <v>4.43</v>
+        <v>1633.46</v>
       </c>
       <c r="D42" s="3">
-        <v>9.31</v>
+        <v>2481.25</v>
       </c>
       <c r="E42" s="3">
-        <v>75.3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
@@ -3957,13 +3961,13 @@
         <v>2048</v>
       </c>
       <c r="C43" s="3">
-        <v>5.23</v>
+        <v>2299.65</v>
       </c>
       <c r="D43" s="3">
-        <v>20.329999999999998</v>
+        <v>3596.31</v>
       </c>
       <c r="E43" s="3">
-        <v>132.97</v>
+        <v>57.18</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
@@ -3971,13 +3975,13 @@
         <v>4096</v>
       </c>
       <c r="C44" s="3">
-        <v>33.44</v>
+        <v>208.31</v>
       </c>
       <c r="D44" s="3">
-        <v>45.65</v>
+        <v>1534.18</v>
       </c>
       <c r="E44" s="3">
-        <v>171.29</v>
+        <v>91.44</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
@@ -3985,13 +3989,13 @@
         <v>8192</v>
       </c>
       <c r="C45" s="3">
-        <v>58.05</v>
+        <v>428.53</v>
       </c>
       <c r="D45" s="3">
-        <v>110.39</v>
+        <v>2308.52</v>
       </c>
       <c r="E45" s="3">
-        <v>164.68</v>
+        <v>108.57</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
@@ -3999,13 +4003,13 @@
         <v>16384</v>
       </c>
       <c r="C46" s="3">
-        <v>53.71</v>
+        <v>923.39</v>
       </c>
       <c r="D46" s="3">
-        <v>191.83</v>
+        <v>3034.2</v>
       </c>
       <c r="E46" s="3">
-        <v>81.33</v>
+        <v>85.47</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
@@ -4013,13 +4017,13 @@
         <v>32768</v>
       </c>
       <c r="C47" s="3">
-        <v>78.64</v>
+        <v>1095.51</v>
       </c>
       <c r="D47" s="3">
-        <v>72.31</v>
+        <v>4019.6</v>
       </c>
       <c r="E47" s="3">
-        <v>120.28</v>
+        <v>154.16999999999999</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
@@ -4027,13 +4031,13 @@
         <v>65536</v>
       </c>
       <c r="C48" s="3">
-        <v>71.08</v>
+        <v>944.35</v>
       </c>
       <c r="D48" s="3">
-        <v>72.73</v>
+        <v>4891.09</v>
       </c>
       <c r="E48" s="3">
-        <v>172.93</v>
+        <v>204.52</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
@@ -4041,13 +4045,13 @@
         <v>131072</v>
       </c>
       <c r="C49" s="3">
-        <v>312.43</v>
+        <v>1532.12</v>
       </c>
       <c r="D49" s="3">
-        <v>242.39</v>
+        <v>5486.99</v>
       </c>
       <c r="E49" s="3">
-        <v>299.36</v>
+        <v>241.74</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
@@ -4055,13 +4059,13 @@
         <v>262144</v>
       </c>
       <c r="C50" s="3">
-        <v>523.87</v>
+        <v>2218.12</v>
       </c>
       <c r="D50" s="3">
-        <v>520.5</v>
+        <v>5865.2</v>
       </c>
       <c r="E50" s="3">
-        <v>556.69000000000005</v>
+        <v>310.39999999999998</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
@@ -4069,13 +4073,13 @@
         <v>524288</v>
       </c>
       <c r="C51" s="3">
-        <v>1477.16</v>
+        <v>1341.99</v>
       </c>
       <c r="D51" s="3">
-        <v>1393.09</v>
+        <v>5971.85</v>
       </c>
       <c r="E51" s="3">
-        <v>1080.43</v>
+        <v>616.27</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
@@ -4083,13 +4087,13 @@
         <v>1048576</v>
       </c>
       <c r="C52" s="3">
-        <v>3015.73</v>
+        <v>1495.31</v>
       </c>
       <c r="D52" s="3">
-        <v>3139.03</v>
+        <v>6179.8</v>
       </c>
       <c r="E52" s="3">
-        <v>2065.63</v>
+        <v>617.95000000000005</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
@@ -4097,13 +4101,13 @@
         <v>2097152</v>
       </c>
       <c r="C53" s="3">
-        <v>9100.7800000000007</v>
+        <v>1478.18</v>
       </c>
       <c r="D53" s="3">
-        <v>8414.52</v>
+        <v>5861.65</v>
       </c>
       <c r="E53" s="3">
-        <v>3859.86</v>
+        <v>850.54</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
@@ -4111,13 +4115,13 @@
         <v>4194304</v>
       </c>
       <c r="C54" s="3">
-        <v>10342.969999999999</v>
+        <v>468.54</v>
       </c>
       <c r="D54" s="3">
-        <v>9692.8799999999992</v>
+        <v>1555.68</v>
       </c>
       <c r="E54" s="3">
-        <v>6784.98</v>
+        <v>1201.5899999999999</v>
       </c>
     </row>
   </sheetData>
